--- a/class_schedules/GENDER, SEXUALITY, & FEMINIST STUDIES (GSFS).xlsx
+++ b/class_schedules/GENDER, SEXUALITY, & FEMINIST STUDIES (GSFS).xlsx
@@ -14,36 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
     <t>203</t>
   </si>
   <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>505F</t>
-  </si>
-  <si>
-    <t>505H</t>
-  </si>
-  <si>
-    <t>995F</t>
+    <t>207</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>500F</t>
+  </si>
+  <si>
+    <t>500H</t>
   </si>
   <si>
     <t>995H</t>
@@ -52,112 +43,94 @@
     <t>01</t>
   </si>
   <si>
-    <t>1315</t>
-  </si>
-  <si>
-    <t>14837</t>
-  </si>
-  <si>
-    <t>1318</t>
-  </si>
-  <si>
-    <t>14838</t>
-  </si>
-  <si>
-    <t>1321</t>
-  </si>
-  <si>
-    <t>14839</t>
-  </si>
-  <si>
-    <t>14834</t>
-  </si>
-  <si>
-    <t>11216</t>
-  </si>
-  <si>
-    <t>11214</t>
-  </si>
-  <si>
-    <t>11209</t>
-  </si>
-  <si>
-    <t>11207</t>
+    <t>13018</t>
+  </si>
+  <si>
+    <t>14821</t>
+  </si>
+  <si>
+    <t>14100</t>
+  </si>
+  <si>
+    <t>8959</t>
+  </si>
+  <si>
+    <t>8274</t>
+  </si>
+  <si>
+    <t>12602</t>
+  </si>
+  <si>
+    <t>12603</t>
+  </si>
+  <si>
+    <t>12253</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Elementary German</t>
-  </si>
-  <si>
-    <t>Intermediate German</t>
-  </si>
-  <si>
-    <t>Young Germany to Modernism</t>
-  </si>
-  <si>
-    <t>Max Kade Germ Writer-in-Res</t>
-  </si>
-  <si>
-    <t>Refugees in Germ. Cult &amp; Media</t>
-  </si>
-  <si>
-    <t>German Honors -</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Intro to GSFS</t>
+  </si>
+  <si>
+    <t>Sociology of Sexuality</t>
+  </si>
+  <si>
+    <t>Introduction to Queer Studies</t>
+  </si>
+  <si>
+    <t>Feminist Resrch Methodologies</t>
+  </si>
+  <si>
+    <t>Senior</t>
   </si>
   <si>
     <t>Private Reading -</t>
   </si>
   <si>
-    <t>MTWRF</t>
-  </si>
-  <si>
-    <t>MWF</t>
-  </si>
-  <si>
     <t>TR</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Full</t>
+    <t>Capstone</t>
+  </si>
+  <si>
+    <t>Honors</t>
   </si>
   <si>
     <t>Half</t>
   </si>
   <si>
-    <t>0900-0950am</t>
-  </si>
-  <si>
-    <t>1100-1150am</t>
-  </si>
-  <si>
-    <t>0230-0320pm</t>
+    <t>0300-0415pm</t>
   </si>
   <si>
     <t>1100-1215pm</t>
   </si>
   <si>
-    <t>0700-0830pm</t>
+    <t>0300-0420pm</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>Staff A&amp;S</t>
-  </si>
-  <si>
-    <t>Bruenner Ines</t>
-  </si>
-  <si>
-    <t>Huff Steven</t>
+    <t>Bachrach Emilia</t>
+  </si>
+  <si>
+    <t>Mattson Greggor</t>
+  </si>
+  <si>
+    <t>Cerankowski KJ</t>
   </si>
 </sst>
 </file>
@@ -515,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,31 +534,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -596,31 +569,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,31 +604,31 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,31 +639,31 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,31 +674,31 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -736,31 +709,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -771,31 +741,28 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -806,136 +773,31 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
         <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
